--- a/data/sheets/Copper.xlsx
+++ b/data/sheets/Copper.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28aa9e46087b5738/0-Concordia_Capital/excel_to_https/excel_web_refresh/export/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7119B21E-EED6-4924-9C88-3585A11EEED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35A0B26C-98A9-4D2E-A065-4908162FEE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{909106F3-8EED-4952-B1DB-DC453C62D79F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DA30CCA6-4661-4AA7-9F4B-DA6B30F1DB9B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Copper" sheetId="2" r:id="rId1"/>
+    <sheet name="Copper" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -48,7 +48,6 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" localSheetId="0" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
@@ -626,14 +625,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -982,213 +974,212 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1206,40 +1197,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1248,195 +1239,194 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="千位分隔 2" xfId="3" xr:uid="{EC6AAE60-90B3-4F0C-8790-A5179A254816}"/>
+  <cellStyles count="3">
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{9D6C617B-9A21-41D2-80BB-5CDFF674A89F}"/>
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{C861493D-18DB-4D6E-A754-A697C576A4AD}"/>
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1914,7 +1904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031D1338-6EA0-4A06-8B95-B7BD791594B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100BB19A-C899-46FD-A5BF-5C076825EE4A}">
   <dimension ref="A1:CB79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -2508,7 +2498,7 @@
       <c r="BZ5" s="46"/>
       <c r="CA5" s="59"/>
     </row>
-    <row r="6" spans="1:80" ht="14.4">
+    <row r="6" spans="1:80" ht="13.8">
       <c r="A6" s="60" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L6, A$3)</f>
         <v>#NAME?</v>
@@ -2812,7 +2802,7 @@
       <c r="CA6" s="59"/>
       <c r="CB6" s="84"/>
     </row>
-    <row r="7" spans="1:80" ht="14.4">
+    <row r="7" spans="1:80" ht="13.8">
       <c r="A7" s="60" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L7, A$3)</f>
         <v>#NAME?</v>
@@ -3116,7 +3106,7 @@
       <c r="CA7" s="59"/>
       <c r="CB7" s="84"/>
     </row>
-    <row r="8" spans="1:80" ht="14.4">
+    <row r="8" spans="1:80" ht="13.8">
       <c r="A8" s="60" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L8, A$3)</f>
         <v>#NAME?</v>
@@ -3420,7 +3410,7 @@
       <c r="CA8" s="59"/>
       <c r="CB8" s="84"/>
     </row>
-    <row r="9" spans="1:80" ht="14.4">
+    <row r="9" spans="1:80" ht="13.8">
       <c r="A9" s="60" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L9, A$3)</f>
         <v>#NAME?</v>
@@ -3724,7 +3714,7 @@
       <c r="CA9" s="59"/>
       <c r="CB9" s="84"/>
     </row>
-    <row r="10" spans="1:80" ht="14.4">
+    <row r="10" spans="1:80" ht="13.8">
       <c r="A10" s="60" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L10, A$3)</f>
         <v>#NAME?</v>
@@ -4263,7 +4253,7 @@
       <c r="BZ12" s="46"/>
       <c r="CA12" s="46"/>
     </row>
-    <row r="13" spans="1:80" ht="14.4">
+    <row r="13" spans="1:80" ht="13.8">
       <c r="A13" s="60" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L13, A$3)</f>
         <v>#NAME?</v>
@@ -4567,7 +4557,7 @@
       <c r="CA13" s="46"/>
       <c r="CB13" s="115"/>
     </row>
-    <row r="14" spans="1:80" ht="14.4">
+    <row r="14" spans="1:80" ht="13.8">
       <c r="A14" s="60" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L14, A$3)</f>
         <v>#NAME?</v>
@@ -4870,7 +4860,7 @@
       </c>
       <c r="CA14" s="46"/>
     </row>
-    <row r="15" spans="1:80" ht="14.4">
+    <row r="15" spans="1:80" ht="13.8">
       <c r="A15" s="60" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L15, A$3)</f>
         <v>#NAME?</v>
@@ -5174,7 +5164,7 @@
       <c r="CA15" s="46"/>
       <c r="CB15" s="84"/>
     </row>
-    <row r="16" spans="1:80" ht="14.4">
+    <row r="16" spans="1:80" ht="13.8">
       <c r="A16" s="60" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L16, A$3)</f>
         <v>#NAME?</v>
@@ -5715,7 +5705,7 @@
       <c r="BZ18" s="46"/>
       <c r="CA18" s="46"/>
     </row>
-    <row r="19" spans="1:80" ht="14.4">
+    <row r="19" spans="1:80" ht="13.8">
       <c r="A19" s="60" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L19, A$3)</f>
         <v>#NAME?</v>
@@ -6018,7 +6008,7 @@
       </c>
       <c r="CA19" s="46"/>
     </row>
-    <row r="20" spans="1:80" ht="14.4">
+    <row r="20" spans="1:80" ht="13.8">
       <c r="A20" s="60" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L20, A$3)</f>
         <v>#NAME?</v>
@@ -6321,7 +6311,7 @@
       </c>
       <c r="CA20" s="46"/>
     </row>
-    <row r="21" spans="1:80" ht="14.4">
+    <row r="21" spans="1:80" ht="13.8">
       <c r="A21" s="60" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L21, A$3)</f>
         <v>#NAME?</v>
@@ -6624,7 +6614,7 @@
       </c>
       <c r="CA21" s="46"/>
     </row>
-    <row r="22" spans="1:80" ht="14.4">
+    <row r="22" spans="1:80" ht="13.8">
       <c r="A22" s="60" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L22, A$3)</f>
         <v>#NAME?</v>
@@ -6928,7 +6918,7 @@
       <c r="CA22" s="46"/>
       <c r="CB22" s="84"/>
     </row>
-    <row r="23" spans="1:80" ht="14.4">
+    <row r="23" spans="1:80" ht="13.8">
       <c r="A23" s="60" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L23, A$3)</f>
         <v>#NAME?</v>
@@ -7232,7 +7222,7 @@
       <c r="CA23" s="46"/>
       <c r="CB23" s="84"/>
     </row>
-    <row r="24" spans="1:80" ht="14.4">
+    <row r="24" spans="1:80" ht="13.8">
       <c r="A24" s="60" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L24, A$3)</f>
         <v>#NAME?</v>
@@ -7535,7 +7525,7 @@
       </c>
       <c r="CA24" s="46"/>
     </row>
-    <row r="25" spans="1:80" ht="14.4">
+    <row r="25" spans="1:80" ht="13.8">
       <c r="A25" s="60" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L25, A$3)</f>
         <v>#NAME?</v>
@@ -7838,7 +7828,7 @@
       </c>
       <c r="CA25" s="46"/>
     </row>
-    <row r="26" spans="1:80" ht="14.4">
+    <row r="26" spans="1:80" ht="13.8">
       <c r="A26" s="60" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L26, A$3)</f>
         <v>#NAME?</v>
@@ -8141,7 +8131,7 @@
       </c>
       <c r="CA26" s="46"/>
     </row>
-    <row r="27" spans="1:80" ht="14.4">
+    <row r="27" spans="1:80" ht="13.8">
       <c r="A27" s="60" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L27, A$3)</f>
         <v>#NAME?</v>
@@ -8752,7 +8742,7 @@
       <c r="BZ30" s="46"/>
       <c r="CA30" s="46"/>
     </row>
-    <row r="31" spans="1:80" ht="14.4">
+    <row r="31" spans="1:80">
       <c r="A31" s="60"/>
       <c r="B31" s="60"/>
       <c r="C31" s="60"/>
@@ -9034,7 +9024,7 @@
       </c>
       <c r="CA31" s="46"/>
     </row>
-    <row r="32" spans="1:80" ht="14.4">
+    <row r="32" spans="1:80">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
       <c r="C32" s="60"/>
@@ -9325,7 +9315,7 @@
       <c r="F33" s="60"/>
       <c r="G33" s="60"/>
     </row>
-    <row r="34" spans="1:27" ht="14.4">
+    <row r="34" spans="1:27">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
       <c r="C34" s="60"/>
